--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{332EB0E6-704E-4EC9-A218-A29021A64FCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950C447E-F249-4484-B143-3E7A48A1C554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23910" yWindow="450" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-18000" yWindow="1425" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shortcuts" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>hides or shows the console</t>
   </si>
@@ -792,6 +792,29 @@
         <scheme val="minor"/>
       </rPr>
       <t>to receive even number</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> adds new row e.g. result += '\n'</t>
     </r>
   </si>
 </sst>
@@ -1210,10 +1233,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
-  <dimension ref="A1:A18"/>
+  <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1311,6 +1334,11 @@
         <v>31</v>
       </c>
     </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950C447E-F249-4484-B143-3E7A48A1C554}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F523C2-68E4-4967-81E4-48A49E498C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-18000" yWindow="1425" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>hides or shows the console</t>
   </si>
@@ -815,6 +815,29 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> adds new row e.g. result += '\n'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>toptal.com</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a website with html codes for symbols etc.</t>
     </r>
   </si>
 </sst>
@@ -1233,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
-  <dimension ref="A1:A19"/>
+  <dimension ref="A1:A20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1339,6 +1362,11 @@
         <v>32</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F523C2-68E4-4967-81E4-48A49E498C2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79F8215-CF82-43AA-B9F9-8834DB376677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-18000" yWindow="1425" windowWidth="17280" windowHeight="8970" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shortcuts" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>hides or shows the console</t>
   </si>
@@ -838,6 +838,52 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> is a website with html codes for symbols etc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Postman</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a dev tool app (can install it if I want to), e.g. get softuni.bg and in show the result as an HTML file to easily debug issues</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Live Server</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (extension I can download in my VSC) that can simulate a live server</t>
     </r>
   </si>
 </sst>
@@ -1256,10 +1302,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:A22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1367,6 +1413,16 @@
         <v>33</v>
       </c>
     </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C79F8215-CF82-43AA-B9F9-8834DB376677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4D377D-0FAA-45C8-A011-23F4DA43EC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>hides or shows the console</t>
   </si>
@@ -884,6 +884,311 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> (extension I can download in my VSC) that can simulate a live server</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Adding an element at the end of the array: (2 examples)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+let arr = [10, 20, 30];
+arr[arr.length] = 40;
+console.log(arr);  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">// [10, 20, 30, 40]
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>example2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+let arr = [10, 20, 30];
+arr.push(40);
+console.log(arr); </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>// [10, 20, 30, 40]</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>JS Arrays and invalid positions
+let nums = [10, 20, 30];
+nums</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[4]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 50;  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">// will resize the array
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">console.log(nums);  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//[10, 20, 30 &lt;empty&gt; 50]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+console.log(nums.length);  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//5</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+console.log(nums[3]);  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">//undefined
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>console.log(nums</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[- 5]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">);  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//undefined(invalid index)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+nums</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>[-5]</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = 8;  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//will not resize the array</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+console.log(nums[-5], nums.length);  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//8 5</t>
     </r>
   </si>
 </sst>
@@ -891,7 +1196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -911,6 +1216,37 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1302,10 +1638,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
-  <dimension ref="A1:A22"/>
+  <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,6 +1759,16 @@
         <v>35</v>
       </c>
     </row>
+    <row r="23" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="144" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4D377D-0FAA-45C8-A011-23F4DA43EC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA548716-FE95-459B-AC56-5FF27ABE1B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1640,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
   <dimension ref="A1:A24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA548716-FE95-459B-AC56-5FF27ABE1B73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22004FE6-0DFB-46A9-9CD6-48ACB3CDC074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>hides or shows the console</t>
   </si>
@@ -1190,13 +1190,186 @@
       </rPr>
       <t>//8 5</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t>let arr = [10, 20, 30]
+console.log(arr.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>includes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);   //true
+console.log(arr.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>includes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>);   //false
+console.log(arr.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>' : '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>));   // 10:20:30</t>
+    </r>
+  </si>
+  <si>
+    <t>let capitals = ['Sofia', 'Washington', 'London'];
+for(let i = 0; i &lt; capitals.length; i++){
+   console.log(capitals[i]);
+}</t>
+  </si>
+  <si>
+    <t>let nums = [10, 20, 30];
+   nums[4] = 50;
+   nums[-5] = 70;
+for(let i = 0; i &lt; nums.length; i++){
+   console.log(i, nums[i)];
+}
+console.log('Something: ', nums[-5]);   
+and it will print like: 
+0 10
+1 20
+2 30
+3 undefined
+4 50
+Something: 70</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1245,6 +1418,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFC000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFFC000"/>
       <name val="Calibri"/>
@@ -1638,10 +1818,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
-  <dimension ref="A1:A24"/>
+  <dimension ref="A1:A27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1769,6 +1949,21 @@
         <v>37</v>
       </c>
     </row>
+    <row r="25" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="216" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22004FE6-0DFB-46A9-9CD6-48ACB3CDC074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28738940-B982-4866-97A5-4F51DC4361AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>hides or shows the console</t>
   </si>
@@ -1363,6 +1363,90 @@
 3 undefined
 4 50
 Something: 70</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">For-of Loop example
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>let arr = [10, 20, 30, 40];</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">for (let I = 0; I &lt; arr.length; i++){   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">//here it is the usual way
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">     let element = arr[i];
+     console.log(element);
+}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+for(let element of arr){                //here it an example of for of the usual way
+     console.log(element);</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1818,7 +1902,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:A28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
       <selection activeCell="A28" sqref="A28"/>
@@ -1964,6 +2048,11 @@
         <v>40</v>
       </c>
     </row>
+    <row r="28" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28738940-B982-4866-97A5-4F51DC4361AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB6237C-0150-410B-AE65-530754EF41ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
     <t>hides or shows the console</t>
   </si>
@@ -1446,6 +1446,73 @@
       <t xml:space="preserve">  
 for(let element of arr){                //here it an example of for of the usual way
      console.log(element);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+When we create an html file we type</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> .html </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at the end
+Also, we type</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> "!" And click tab </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and the html is populated with predetermined text</t>
     </r>
   </si>
 </sst>
@@ -1902,10 +1969,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2053,6 +2120,11 @@
         <v>41</v>
       </c>
     </row>
+    <row r="29" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB6237C-0150-410B-AE65-530754EF41ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFB6ACE-A609-4CFE-9197-34C9FD885181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1512,7 +1512,29 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>and the html is populated with predetermined text</t>
+      <t>and the html is populated with predetermined text
+once we type needed info (I have already downloaded the</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Live Server Extension</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) and right click "Open with Live Server"</t>
     </r>
   </si>
 </sst>
@@ -1972,7 +1994,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2120,7 +2142,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>42</v>
       </c>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFB6ACE-A609-4CFE-9197-34C9FD885181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3076441C-D67B-4A3E-B65C-0372BBD05FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>hides or shows the console</t>
   </si>
@@ -1535,6 +1535,118 @@
         <scheme val="minor"/>
       </rPr>
       <t>) and right click "Open with Live Server"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">https://developer.mozilla.org
+https://www.w3schools.com
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are useful websites for all kinds of dev stuff</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+When I want to create a big text for a paragraph, I just type </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lorem1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ tab</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> which willl generate 1000 words. Then we can do Ctr+Shift+p and type &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"Toggle Word Wrap"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to make the text on one row looking better</t>
     </r>
   </si>
 </sst>
@@ -1991,10 +2103,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
-  <dimension ref="A1:A29"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2147,6 +2259,16 @@
         <v>42</v>
       </c>
     </row>
+    <row r="30" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3076441C-D67B-4A3E-B65C-0372BBD05FDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A0113B-20D8-4AE1-B9C6-3ED8D7B3DE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4A0113B-20D8-4AE1-B9C6-3ED8D7B3DE91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6C0F7E-412C-4958-B400-9B45E5651BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>hides or shows the console</t>
   </si>
@@ -1647,6 +1647,25 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> to make the text on one row looking better</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">converting </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Number to String, 3 ways:
+1. String(num);
+2. num.toString();
+3. `${num}`</t>
     </r>
   </si>
 </sst>
@@ -2103,10 +2122,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2269,6 +2288,11 @@
         <v>44</v>
       </c>
     </row>
+    <row r="32" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D6C0F7E-412C-4958-B400-9B45E5651BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DA2E65-2359-4E53-B4BF-234B7A6D556D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>hides or shows the console</t>
   </si>
@@ -1666,6 +1666,161 @@
 1. String(num);
 2. num.toString();
 3. `${num}`</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>In Arrays:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>push()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - add to the end
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pop()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - remove from the end
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">unshift() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- add to the beginning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shift()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - remove from the beginning
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>includes()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - look for value
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>indexOf()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - find index of value</t>
     </r>
   </si>
 </sst>
@@ -2122,10 +2277,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
-  <dimension ref="A1:A32"/>
+  <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2293,6 +2448,11 @@
         <v>45</v>
       </c>
     </row>
+    <row r="33" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3DA2E65-2359-4E53-B4BF-234B7A6D556D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA28B23-6FE7-4850-ADDF-F3E312604A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>hides or shows the console</t>
   </si>
@@ -1821,6 +1821,50 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> - find index of value</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> converts string into array, but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> converts array into string</t>
     </r>
   </si>
 </sst>
@@ -2277,10 +2321,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2453,6 +2497,11 @@
         <v>46</v>
       </c>
     </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA28B23-6FE7-4850-ADDF-F3E312604A01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADE5369-6A88-4AF1-B7EB-BE5262B32433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1678,6 +1678,50 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>split</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> converts string into array, but </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>join</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> converts array into string</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>In Arrays:</t>
     </r>
     <r>
@@ -1798,7 +1842,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - look for value
+      <t xml:space="preserve"> - look for value (and will give us True or False)
 </t>
     </r>
     <r>
@@ -1820,51 +1864,34 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - find index of value</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>split</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> converts string into array, but </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>join</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> converts array into string</t>
+      <t xml:space="preserve"> - find index of value (and will give us the number of the Index like what index of the array it is e.g. 0,1,2,3 etc)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">slice() </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>- creates new array from part of another (this is like copying a part of an array); e.g. slice(0, 2) e.g. if we have let arr = [10, 20, 30, 40, 50] and we do console.log(arr.slice(0,2)) then we will see only [10, 20] (please note no matter it says (0, 2), it only counts index 0 and index 1
+Also, we have fro example again let arr = [10, 20, 30, 40, 50]; and when we console.log(arr.slice(1)); it will print [20, 30, 40, 50] (so everything after index 1 will be printed); 
+if I console.log(arr.slice()) then it will make a copy of the whole array e.g. [10, 20, 30, 40, 50];
+Also, we have fro example again let arr = [10, 20, 30, 40, 50] if we do console.log(arr.slice(1, - 1) it will show [20, 30, 40] (when we have minus values it counts from right to left, but not left to right direction)
+if we do console.log(arr.slice(-3, - 2) we will get as a result only [30];
+if we do console.log(arr.slice(-2, -3) we will get as a resullt [];</t>
     </r>
   </si>
 </sst>
@@ -2323,8 +2350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2492,14 +2519,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="216" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ADE5369-6A88-4AF1-B7EB-BE5262B32433}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938F32F7-F1BC-4984-91FF-914A8A03C1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1864,7 +1864,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> - find index of value (and will give us the number of the Index like what index of the array it is e.g. 0,1,2,3 etc)
+      <t xml:space="preserve"> - find index of value (and will give us the number of the Index like what index of the array it is e.g. 0,1,2,3 etc); if indexOf() doesn't find the search element of the array, it returns -1
 </t>
     </r>
     <r>
@@ -2350,8 +2350,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2519,7 +2519,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="216" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>47</v>
       </c>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{938F32F7-F1BC-4984-91FF-914A8A03C1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B1F372-78CD-4744-90FC-5F7E8FB51C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2351,7 +2351,7 @@
   <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B1F372-78CD-4744-90FC-5F7E8FB51C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CB7A4A-4C34-481E-AB40-A1D6C1A7C2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>hides or shows the console</t>
   </si>
@@ -1894,12 +1894,18 @@
 if we do console.log(arr.slice(-2, -3) we will get as a resullt [];</t>
     </r>
   </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/JavaScript</t>
+  </si>
+  <si>
+    <t>!!!!!!!!!! A very useful website</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1961,6 +1967,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1979,10 +1993,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1992,8 +2007,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2348,10 +2365,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2519,18 +2536,29 @@
         <v>45</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="230.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
     </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A35" r:id="rId1" xr:uid="{FEAA7178-A4F2-4B44-92C7-2FE12ACC1BC4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76CB7A4A-4C34-481E-AB40-A1D6C1A7C2C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF4C6FD-DE16-4E5F-9A0D-71BB7E7B79FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>hides or shows the console</t>
   </si>
@@ -1899,6 +1899,35 @@
   </si>
   <si>
     <t>!!!!!!!!!! A very useful website</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">forEach </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>how it works
+e.g. let arr = [5, 10, -13, 5];
+arr.forEach(num =&gt; console.log(num));  //and when we print we will see
+                                                                5
+                                                                10
+                                                                -13
+                                                                5</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2365,7 +2394,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
@@ -2554,6 +2583,11 @@
         <v>49</v>
       </c>
     </row>
+    <row r="36" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A35" r:id="rId1" xr:uid="{FEAA7178-A4F2-4B44-92C7-2FE12ACC1BC4}"/>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CF4C6FD-DE16-4E5F-9A0D-71BB7E7B79FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F16931-261B-467D-ADC3-B16AEEADABA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1920,7 +1920,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>how it works
+      <t>how it works in arrays (basically, it takes every element and does sth with that element)
 e.g. let arr = [5, 10, -13, 5];
 arr.forEach(num =&gt; console.log(num));  //and when we print we will see
                                                                 5
@@ -2396,8 +2396,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04F16931-261B-467D-ADC3-B16AEEADABA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9791AAE2-7982-4B67-97F0-C12EC7A8AAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9791AAE2-7982-4B67-97F0-C12EC7A8AAA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2AAC29-D1C9-4F7E-B4E2-6763CD94F4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Shortcuts" sheetId="1" r:id="rId1"/>
@@ -240,29 +240,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>mdn</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (this is a website) javascript type on google search to find useful functions</t>
-    </r>
-  </si>
-  <si>
     <t>CtrlA+K+F</t>
   </si>
   <si>
@@ -1929,12 +1906,56 @@
                                                                 5</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mdn</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (this is a website) javascript type on google search to find useful functions </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://developer.mozilla.org/en-US/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2000,6 +2021,21 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2332,7 +2368,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2340,7 +2376,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2397,7 +2433,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2432,160 +2468,160 @@
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="72" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="144" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="216" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="230.4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B35" t="s">
         <v>48</v>
-      </c>
-      <c r="B35" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Fundamentals Sheet.xlsx
+++ b/Fundamentals Sheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Glori\Fundamentals\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA2AAC29-D1C9-4F7E-B4E2-6763CD94F4D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6BA9D1-23ED-468F-A5F3-E07A59675860}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>hides or shows the console</t>
   </si>
@@ -1948,6 +1948,32 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Can easily learn SQL from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>W3Schools</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> website (go to SQL tutorials on the W3Schools website), best for some practice</t>
     </r>
   </si>
 </sst>
@@ -2430,10 +2456,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF88940-06B9-4872-8D47-121817D7D698}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2624,6 +2650,11 @@
         <v>49</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A35" r:id="rId1" xr:uid="{FEAA7178-A4F2-4B44-92C7-2FE12ACC1BC4}"/>
